--- a/biology/Zoologie/Blennie_de_Roux/Blennie_de_Roux.xlsx
+++ b/biology/Zoologie/Blennie_de_Roux/Blennie_de_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blennie de Roux, Baveuse blanche
 Parablennius rouxi, communément appelé Blennie de Roux, Baveuse blanche ou Baveuse à flanc noir, est une espèce de poissons de la famille des Blenniidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique de Méditerranée, évoluant parmi les algues et le coralligène, sur les fonds pouvant aller jusqu'à 42 m de profondeur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique de Méditerranée, évoluant parmi les algues et le coralligène, sur les fonds pouvant aller jusqu'à 42 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit poisson blanc légèrement teinté de jaune, mesurant environ 7 cm (max 8 cm[2]), reconnaissable à la bande foncée qu'il porte de la tête à la queue. Il affectionne particulièrement les petits trous et petits tunnels laissés vacant par certains mollusques.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit poisson blanc légèrement teinté de jaune, mesurant environ 7 cm (max 8 cm), reconnaissable à la bande foncée qu'il porte de la tête à la queue. Il affectionne particulièrement les petits trous et petits tunnels laissés vacant par certains mollusques.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parablennius rouxi se nourrit d'algues, de petits crustacés et de vers.
 </t>
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(en) Cocco, 1833 : Su di alcuni pesci de' mari di Messina. Giornale di Scienze Lettere e Arti per La Sicilia, vol. 42, n. 124, pp. 9-21[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Cocco, 1833 : Su di alcuni pesci de' mari di Messina. Giornale di Scienze Lettere e Arti per La Sicilia, vol. 42, n. 124, pp. 9-21.</t>
         </is>
       </c>
     </row>
